--- a/SAM 1.3/arquivo_twm/Colunas do TWM (por cliente).xlsx
+++ b/SAM 1.3/arquivo_twm/Colunas do TWM (por cliente).xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor Magal\Desktop\SAM- v0(pimenta)\SAM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor Magal\Desktop\SAM 1.3\arquivo_twm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83995F63-9054-416C-9273-A4CF06F52BFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44ECD61A-9241-4AE8-A60F-830E7547DED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C1BADE45-E758-4812-8328-FD86DBCC874A}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="34">
   <si>
     <t>LOCALIZA</t>
   </si>
@@ -131,6 +131,9 @@
   </si>
   <si>
     <t>Marca</t>
+  </si>
+  <si>
+    <t>DPSP</t>
   </si>
 </sst>
 </file>
@@ -180,7 +183,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -209,18 +212,7 @@
       </left>
       <right/>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -242,7 +234,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -560,18 +552,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50DA2D4E-A126-4004-90D3-0C779C04E067}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>15</v>
       </c>
@@ -579,8 +572,9 @@
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -596,8 +590,11 @@
       <c r="E2" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -613,8 +610,11 @@
       <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -630,8 +630,11 @@
       <c r="E4" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -647,8 +650,11 @@
       <c r="E5" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -664,8 +670,9 @@
       <c r="E6" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -681,8 +688,9 @@
       <c r="E7" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -698,8 +706,9 @@
       <c r="E8" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -715,8 +724,9 @@
       <c r="E9" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -732,8 +742,9 @@
       <c r="E10" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -749,8 +760,9 @@
       <c r="E11" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
@@ -764,8 +776,9 @@
         <v>29</v>
       </c>
       <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
@@ -777,8 +790,9 @@
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
@@ -786,8 +800,9 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>22</v>
       </c>
@@ -795,52 +810,59 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
